--- a/poverty_measurement/input/valor_canasta_nacional_metocol.xlsx
+++ b/poverty_measurement/input/valor_canasta_nacional_metocol.xlsx
@@ -36,109 +36,109 @@
     <t>bien</t>
   </si>
   <si>
+    <t xml:space="preserve">Caraotas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papelon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastas alimenticias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auyama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pan de trigo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carne de res (bistec, carne molida, carne para esmechar) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayonesa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margarina/Mantequilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azucar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cebolla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zanahorias </t>
+  </si>
+  <si>
     <t xml:space="preserve">Sal </t>
   </si>
   <si>
-    <t xml:space="preserve">Caraotas </t>
+    <t xml:space="preserve">Frijoles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queso blanco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cafe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aji dulce, pimenton, pimiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leche en polvo, completa o descremada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chorizo, jamon, mortadela y otros embutidos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harina de maiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lechosa </t>
   </si>
   <si>
     <t xml:space="preserve">Arroz, harina de arroz </t>
   </si>
   <si>
-    <t xml:space="preserve">Pastas alimenticias </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frijoles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cebolla </t>
+    <t xml:space="preserve">Lentejas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cebollin, ajoporro, cilantro y similares </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platanos </t>
   </si>
   <si>
     <t xml:space="preserve">Huevos (unidades) </t>
   </si>
   <si>
-    <t xml:space="preserve">Cafe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chorizo, jamon, mortadela y otros embutidos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zanahorias </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queso blanco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lechosa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leche en polvo, completa o descremada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayonesa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harina de maiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cebollin, ajoporro, cilantro y similares </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platanos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auyama </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Margarina/Mantequilla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pan de trigo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aji dulce, pimenton, pimiento </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomates </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carne de res (bistec, carne molida, carne para esmechar) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aceite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azucar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papelon </t>
+    <t xml:space="preserve">Yuca </t>
   </si>
   <si>
     <t xml:space="preserve">Maiz en granos </t>
   </si>
   <si>
-    <t xml:space="preserve">Lentejas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuca </t>
+    <t xml:space="preserve">Sardinas frescas/congeladas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carne de pollo </t>
   </si>
   <si>
     <t xml:space="preserve">Pescado fresco </t>
   </si>
   <si>
     <t xml:space="preserve">Hueso de res, pata de res, pata de pollo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carne de pollo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sardinas frescas/congeladas </t>
   </si>
   <si>
     <t>precio</t>
@@ -221,13 +221,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>31.044525146484375</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>22.535818373730393</v>
+        <v>21.823723782417218</v>
       </c>
       <c r="E2" s="1">
-        <v>699.61376953125</v>
+        <v>1745.89794921875</v>
       </c>
     </row>
     <row r="3">
@@ -241,10 +241,10 @@
         <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>20.343278355853879</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1627.4622802734375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -255,13 +255,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1">
-        <v>114.1391790891991</v>
+        <v>53.981296577178938</v>
       </c>
       <c r="E4" s="1">
-        <v>10272.5263671875</v>
+        <v>6477.75537109375</v>
       </c>
     </row>
     <row r="5">
@@ -272,13 +272,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
-        <v>57.066627874784288</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>6847.9951171875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -289,13 +289,13 @@
         <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>52</v>
+        <v>57.5</v>
       </c>
       <c r="D6" s="1">
-        <v>8.6313793025682113</v>
+        <v>16.519885333687775</v>
       </c>
       <c r="E6" s="1">
-        <v>448.83172607421875</v>
+        <v>949.8934326171875</v>
       </c>
     </row>
     <row r="7">
@@ -306,13 +306,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>52.5</v>
+        <v>78.5</v>
       </c>
       <c r="D7" s="1">
-        <v>16.457479089037886</v>
+        <v>11.229878943532984</v>
       </c>
       <c r="E7" s="1">
-        <v>864.01763916015625</v>
+        <v>881.54547119140625</v>
       </c>
     </row>
     <row r="8">
@@ -323,13 +323,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>152.38095092773438</v>
+        <v>238.80404663085938</v>
       </c>
       <c r="D8" s="1">
-        <v>21.167612287823033</v>
+        <v>1.7035170045711576</v>
       </c>
       <c r="E8" s="1">
-        <v>3225.540771484375</v>
+        <v>406.8067626953125</v>
       </c>
     </row>
     <row r="9">
@@ -340,13 +340,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D9" s="1">
-        <v>12.596166011213423</v>
+        <v>34.21831188705481</v>
       </c>
       <c r="E9" s="1">
-        <v>3400.96484375</v>
+        <v>8554.578125</v>
       </c>
     </row>
     <row r="10">
@@ -357,13 +357,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>14.961363627378425</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>4293.9111328125</v>
       </c>
     </row>
     <row r="11">
@@ -374,13 +374,13 @@
         <v>16</v>
       </c>
       <c r="C11" s="1">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>6.8736184932715814</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>618.62567138671875</v>
       </c>
     </row>
     <row r="12">
@@ -391,13 +391,13 @@
         <v>17</v>
       </c>
       <c r="C12" s="1">
-        <v>248</v>
+        <v>76.5</v>
       </c>
       <c r="D12" s="1">
-        <v>26.284929443713143</v>
+        <v>39.830557651715381</v>
       </c>
       <c r="E12" s="1">
-        <v>6518.66259765625</v>
+        <v>3047.03759765625</v>
       </c>
     </row>
     <row r="13">
@@ -408,13 +408,13 @@
         <v>18</v>
       </c>
       <c r="C13" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>37.39494500023919</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>560.9241943359375</v>
       </c>
     </row>
     <row r="14">
@@ -425,13 +425,13 @@
         <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>240</v>
+        <v>52.5</v>
       </c>
       <c r="D14" s="1">
-        <v>7.5887418317259705</v>
+        <v>16.705050011272128</v>
       </c>
       <c r="E14" s="1">
-        <v>1821.298095703125</v>
+        <v>877.01513671875</v>
       </c>
     </row>
     <row r="15">
@@ -442,13 +442,13 @@
         <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>287</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1">
-        <v>10.352916163835843</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>2971.286865234375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -459,13 +459,13 @@
         <v>21</v>
       </c>
       <c r="C16" s="1">
-        <v>78</v>
+        <v>31.044525146484375</v>
       </c>
       <c r="D16" s="1">
-        <v>125.63386194155223</v>
+        <v>22.09582167266889</v>
       </c>
       <c r="E16" s="1">
-        <v>9799.44140625</v>
+        <v>685.95428466796875</v>
       </c>
     </row>
     <row r="17">
@@ -476,13 +476,13 @@
         <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>74.375</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1">
-        <v>8.7861950559533302</v>
+        <v>9.0773019759435982</v>
       </c>
       <c r="E17" s="1">
-        <v>653.4732666015625</v>
+        <v>472.01971435546875</v>
       </c>
     </row>
     <row r="18">
@@ -493,13 +493,13 @@
         <v>23</v>
       </c>
       <c r="C18" s="1">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="D18" s="1">
-        <v>21.064435758960215</v>
+        <v>25.138999652217471</v>
       </c>
       <c r="E18" s="1">
-        <v>652.99749755859375</v>
+        <v>6234.4716796875</v>
       </c>
     </row>
     <row r="19">
@@ -510,13 +510,13 @@
         <v>24</v>
       </c>
       <c r="C19" s="1">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>13.38977427849883</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>3615.239013671875</v>
       </c>
     </row>
     <row r="20">
@@ -527,13 +527,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1">
-        <v>7.1381170796358608</v>
+        <v>12.573922625853196</v>
       </c>
       <c r="E20" s="1">
-        <v>642.4305419921875</v>
+        <v>943.044189453125</v>
       </c>
     </row>
     <row r="21">
@@ -544,13 +544,13 @@
         <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>238.80404663085938</v>
+        <v>240</v>
       </c>
       <c r="D21" s="1">
-        <v>1.8439675338586812</v>
+        <v>6.8328058778420306</v>
       </c>
       <c r="E21" s="1">
-        <v>440.346923828125</v>
+        <v>1639.8734130859375</v>
       </c>
     </row>
     <row r="22">
@@ -561,13 +561,13 @@
         <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>57.5</v>
+        <v>250</v>
       </c>
       <c r="D22" s="1">
-        <v>15.668787100091466</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>900.95526123046875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -578,13 +578,13 @@
         <v>28</v>
       </c>
       <c r="C23" s="1">
-        <v>75</v>
+        <v>154.89129638671875</v>
       </c>
       <c r="D23" s="1">
-        <v>13.003781988992799</v>
+        <v>24.867986383407938</v>
       </c>
       <c r="E23" s="1">
-        <v>975.28363037109375</v>
+        <v>3851.834716796875</v>
       </c>
     </row>
     <row r="24">
@@ -595,13 +595,13 @@
         <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>78.5</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1">
-        <v>11.258825547660328</v>
+        <v>120.00132452648279</v>
       </c>
       <c r="E24" s="1">
-        <v>883.81781005859375</v>
+        <v>9360.103515625</v>
       </c>
     </row>
     <row r="25">
@@ -612,13 +612,13 @@
         <v>30</v>
       </c>
       <c r="C25" s="1">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1">
-        <v>35.773522600541042</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>8943.380859375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -629,13 +629,13 @@
         <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>154.89129638671875</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1">
-        <v>25.771581386954455</v>
+        <v>110.83556192919544</v>
       </c>
       <c r="E26" s="1">
-        <v>3991.793701171875</v>
+        <v>9975.2001953125</v>
       </c>
     </row>
     <row r="27">
@@ -646,13 +646,13 @@
         <v>32</v>
       </c>
       <c r="C27" s="1">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D27" s="1">
-        <v>39.938503641358324</v>
+        <v>22.002656117188938</v>
       </c>
       <c r="E27" s="1">
-        <v>599.07757568359375</v>
+        <v>2420.292236328125</v>
       </c>
     </row>
     <row r="28">
@@ -663,13 +663,13 @@
         <v>33</v>
       </c>
       <c r="C28" s="1">
-        <v>76.5</v>
+        <v>74.375</v>
       </c>
       <c r="D28" s="1">
-        <v>39.989490301458105</v>
+        <v>8.7984487689428388</v>
       </c>
       <c r="E28" s="1">
-        <v>3059.196044921875</v>
+        <v>654.3846435546875</v>
       </c>
     </row>
     <row r="29">
@@ -680,13 +680,13 @@
         <v>34</v>
       </c>
       <c r="C29" s="1">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>20.319082446163875</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>629.89154052734375</v>
       </c>
     </row>
     <row r="30">
@@ -697,13 +697,13 @@
         <v>35</v>
       </c>
       <c r="C30" s="1">
-        <v>120</v>
+        <v>152.38095092773438</v>
       </c>
       <c r="D30" s="1">
-        <v>18.338965379810677</v>
+        <v>20.316266548469706</v>
       </c>
       <c r="E30" s="1">
-        <v>2200.67578125</v>
+        <v>3095.81201171875</v>
       </c>
     </row>
     <row r="31">
@@ -714,13 +714,13 @@
         <v>36</v>
       </c>
       <c r="C31" s="1">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>18.848436411321099</v>
+        <v>46.868229648158092</v>
       </c>
       <c r="E31" s="1">
-        <v>2073.328125</v>
+        <v>1171.7056884765625</v>
       </c>
     </row>
     <row r="32">
@@ -731,13 +731,13 @@
         <v>37</v>
       </c>
       <c r="C32" s="1">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D32" s="1">
-        <v>45.674628638373122</v>
+        <v>19.775047110803726</v>
       </c>
       <c r="E32" s="1">
-        <v>1141.86572265625</v>
+        <v>2373.005615234375</v>
       </c>
     </row>
     <row r="33">
@@ -745,16 +745,16 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1">
         <v>75</v>
       </c>
       <c r="D33" s="1">
-        <v>39.989490301458105</v>
+        <v>9.0773019759435982</v>
       </c>
       <c r="E33" s="1">
-        <v>2999.211669921875</v>
+        <v>680.79766845703125</v>
       </c>
     </row>
     <row r="34">
@@ -762,16 +762,16 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1">
         <v>500</v>
       </c>
       <c r="D34" s="1">
-        <v>7.5887418317259705</v>
+        <v>6.8328058778420306</v>
       </c>
       <c r="E34" s="1">
-        <v>3794.370849609375</v>
+        <v>3416.40283203125</v>
       </c>
     </row>
     <row r="35">
@@ -779,16 +779,16 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D35" s="1">
-        <v>45.674628638373122</v>
+        <v>8.7984487689428388</v>
       </c>
       <c r="E35" s="1">
-        <v>1141.86572265625</v>
+        <v>659.8836669921875</v>
       </c>
     </row>
     <row r="36">
@@ -796,16 +796,16 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1">
-        <v>8.7861950559533302</v>
+        <v>16.519885333687775</v>
       </c>
       <c r="E36" s="1">
-        <v>658.964599609375</v>
+        <v>1156.3919677734375</v>
       </c>
     </row>
     <row r="37">
@@ -813,16 +813,16 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>21.823723782417218</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>1964.1351318359375</v>
       </c>
     </row>
     <row r="38">
@@ -830,16 +830,16 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D38" s="1">
-        <v>16.457479089037886</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>987.44873046875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -847,10 +847,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1">
-        <v>20</v>
+        <v>52.5</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1">
-        <v>190.4761962890625</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1">
-        <v>21.167612287823033</v>
+        <v>46.868229648158092</v>
       </c>
       <c r="E40" s="1">
-        <v>4031.92626953125</v>
+        <v>1171.7056884765625</v>
       </c>
     </row>
     <row r="41">
@@ -881,16 +881,16 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="D41" s="1">
-        <v>13.003781988992799</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>910.26470947265625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -898,16 +898,16 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="D42" s="1">
-        <v>39.938503641358324</v>
+        <v>20.898904329300343</v>
       </c>
       <c r="E42" s="1">
-        <v>998.46258544921875</v>
+        <v>3448.3193359375</v>
       </c>
     </row>
     <row r="43">
@@ -915,16 +915,16 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1">
-        <v>140</v>
+        <v>190.4761962890625</v>
       </c>
       <c r="D43" s="1">
-        <v>32.047278376572621</v>
+        <v>20.316266548469706</v>
       </c>
       <c r="E43" s="1">
-        <v>4486.619140625</v>
+        <v>3869.76513671875</v>
       </c>
     </row>
     <row r="44">
@@ -932,16 +932,16 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1">
-        <v>86.344520568847656</v>
+        <v>25</v>
       </c>
       <c r="D44" s="1">
-        <v>0</v>
+        <v>37.39494500023919</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>934.87359619140625</v>
       </c>
     </row>
     <row r="45">
@@ -949,16 +949,16 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C45" s="1">
-        <v>30</v>
+        <v>108.72000122070313</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>53.981296577178938</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>5868.8466796875</v>
       </c>
     </row>
     <row r="46">
@@ -966,16 +966,16 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C46" s="1">
-        <v>199.5</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1">
-        <v>35.773522600541042</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>7136.81787109375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -983,16 +983,16 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1">
-        <v>0</v>
+        <v>12.573922625853196</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>880.174560546875</v>
       </c>
     </row>
     <row r="48">
@@ -1000,16 +1000,16 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1">
-        <v>140</v>
+        <v>227.37115478515625</v>
       </c>
       <c r="D48" s="1">
-        <v>7.1381170796358608</v>
+        <v>19.775047110803726</v>
       </c>
       <c r="E48" s="1">
-        <v>999.33636474609375</v>
+        <v>4496.275390625</v>
       </c>
     </row>
     <row r="49">
@@ -1017,16 +1017,16 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C49" s="1">
-        <v>167.63897705078125</v>
+        <v>120</v>
       </c>
       <c r="D49" s="1">
-        <v>1.8439675338586812</v>
+        <v>22.002656117188938</v>
       </c>
       <c r="E49" s="1">
-        <v>309.12081909179688</v>
+        <v>2640.31884765625</v>
       </c>
     </row>
     <row r="50">
@@ -1034,16 +1034,16 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C50" s="1">
-        <v>50</v>
+        <v>154.34782409667969</v>
       </c>
       <c r="D50" s="1">
-        <v>21.064435758960215</v>
+        <v>24.867986383407938</v>
       </c>
       <c r="E50" s="1">
-        <v>1053.2218017578125</v>
+        <v>3838.319580078125</v>
       </c>
     </row>
     <row r="51">
@@ -1051,16 +1051,16 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1">
-        <v>154.34782409667969</v>
+        <v>140</v>
       </c>
       <c r="D51" s="1">
-        <v>25.771581386954455</v>
+        <v>31.874095654139062</v>
       </c>
       <c r="E51" s="1">
-        <v>3977.78759765625</v>
+        <v>4462.37353515625</v>
       </c>
     </row>
     <row r="52">
@@ -1068,16 +1068,16 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C52" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D52" s="1">
-        <v>15.668787100091466</v>
+        <v>110.83556192919544</v>
       </c>
       <c r="E52" s="1">
-        <v>1096.8150634765625</v>
+        <v>8201.83203125</v>
       </c>
     </row>
     <row r="53">
@@ -1085,16 +1085,16 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D53" s="1">
-        <v>11.258825547660328</v>
+        <v>16.705050011272128</v>
       </c>
       <c r="E53" s="1">
-        <v>1125.882568359375</v>
+        <v>1002.302978515625</v>
       </c>
     </row>
     <row r="54">
@@ -1102,16 +1102,16 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C54" s="1">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D54" s="1">
-        <v>18.848436411321099</v>
+        <v>39.830557651715381</v>
       </c>
       <c r="E54" s="1">
-        <v>2261.812255859375</v>
+        <v>2987.291748046875</v>
       </c>
     </row>
     <row r="55">
@@ -1119,16 +1119,16 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C55" s="1">
-        <v>227.37115478515625</v>
+        <v>260</v>
       </c>
       <c r="D55" s="1">
-        <v>18.338965379810677</v>
+        <v>25.138999652217471</v>
       </c>
       <c r="E55" s="1">
-        <v>4169.751953125</v>
+        <v>6536.14013671875</v>
       </c>
     </row>
     <row r="56">
@@ -1136,16 +1136,16 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C56" s="1">
-        <v>260</v>
+        <v>86.344520568847656</v>
       </c>
       <c r="D56" s="1">
-        <v>26.284929443713143</v>
+        <v>13.472605777468297</v>
       </c>
       <c r="E56" s="1">
-        <v>6834.08154296875</v>
+        <v>1163.28564453125</v>
       </c>
     </row>
     <row r="57">
@@ -1153,16 +1153,16 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="D57" s="1">
-        <v>8.6313793025682113</v>
+        <v>14.961363627378425</v>
       </c>
       <c r="E57" s="1">
-        <v>647.35345458984375</v>
+        <v>4488.4091796875</v>
       </c>
     </row>
     <row r="58">
@@ -1170,16 +1170,16 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C58" s="1">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="D58" s="1">
-        <v>10.352916163835843</v>
+        <v>6.8736184932715814</v>
       </c>
       <c r="E58" s="1">
-        <v>3105.874755859375</v>
+        <v>962.30657958984375</v>
       </c>
     </row>
     <row r="59">
@@ -1190,13 +1190,13 @@
         <v>14</v>
       </c>
       <c r="C59" s="1">
-        <v>295</v>
+        <v>199.5</v>
       </c>
       <c r="D59" s="1">
-        <v>12.596166011213423</v>
+        <v>34.21831188705481</v>
       </c>
       <c r="E59" s="1">
-        <v>3715.868896484375</v>
+        <v>6826.55322265625</v>
       </c>
     </row>
     <row r="60">
@@ -1207,13 +1207,13 @@
         <v>21</v>
       </c>
       <c r="C60" s="1">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D60" s="1">
-        <v>125.63386194155223</v>
+        <v>22.09582167266889</v>
       </c>
       <c r="E60" s="1">
-        <v>10050.708984375</v>
+        <v>773.353759765625</v>
       </c>
     </row>
     <row r="61">
@@ -1221,16 +1221,16 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C61" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D61" s="1">
-        <v>20.343278355853879</v>
+        <v>20.319082446163875</v>
       </c>
       <c r="E61" s="1">
-        <v>1830.89501953125</v>
+        <v>1015.9541015625</v>
       </c>
     </row>
     <row r="62">
@@ -1238,16 +1238,16 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C62" s="1">
-        <v>165</v>
+        <v>295</v>
       </c>
       <c r="D62" s="1">
-        <v>20.380797466937956</v>
+        <v>13.38977427849883</v>
       </c>
       <c r="E62" s="1">
-        <v>3362.83154296875</v>
+        <v>3949.9833984375</v>
       </c>
     </row>
     <row r="63">
@@ -1255,16 +1255,16 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C63" s="1">
-        <v>71.290000915527344</v>
+        <v>167.63897705078125</v>
       </c>
       <c r="D63" s="1">
-        <v>0</v>
+        <v>1.7035170045711576</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>285.57583618164063</v>
       </c>
     </row>
     <row r="64">
@@ -1272,16 +1272,16 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C64" s="1">
-        <v>108.72000122070313</v>
+        <v>100</v>
       </c>
       <c r="D64" s="1">
-        <v>57.066627874784288</v>
+        <v>11.229878943532984</v>
       </c>
       <c r="E64" s="1">
-        <v>6204.28369140625</v>
+        <v>1122.9879150390625</v>
       </c>
     </row>
     <row r="65">
@@ -1289,16 +1289,16 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C65" s="1">
-        <v>74</v>
+        <v>71.290000915527344</v>
       </c>
       <c r="D65" s="1">
-        <v>114.1391790891991</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>8446.298828125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1306,16 +1306,16 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C66" s="1">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D66" s="1">
-        <v>22.535818373730393</v>
+        <v>120.00132452648279</v>
       </c>
       <c r="E66" s="1">
-        <v>788.753662109375</v>
+        <v>9600.1064453125</v>
       </c>
     </row>
     <row r="67">
@@ -1323,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C67" s="1">
-        <v>52.5</v>
+        <v>30</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -1340,16 +1340,16 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C68" s="1">
-        <v>280</v>
+        <v>312.5</v>
       </c>
       <c r="D68" s="1">
-        <v>18.338965379810677</v>
+        <v>14.961363627378425</v>
       </c>
       <c r="E68" s="1">
-        <v>5134.91015625</v>
+        <v>4675.42626953125</v>
       </c>
     </row>
     <row r="69">
@@ -1357,16 +1357,16 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C69" s="1">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="D69" s="1">
-        <v>45.674628638373122</v>
+        <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>1507.2626953125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1374,16 +1374,16 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C70" s="1">
-        <v>150</v>
+        <v>83.75</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>8.7984487689428388</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>736.87005615234375</v>
       </c>
     </row>
     <row r="71">
@@ -1391,16 +1391,16 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C71" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>22.002656117188938</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>2200.265625</v>
       </c>
     </row>
     <row r="72">
@@ -1408,16 +1408,16 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C72" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D72" s="1">
-        <v>18.848436411321099</v>
+        <v>16.519885333687775</v>
       </c>
       <c r="E72" s="1">
-        <v>1884.8436279296875</v>
+        <v>1321.5908203125</v>
       </c>
     </row>
     <row r="73">
@@ -1425,16 +1425,16 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D73" s="1">
-        <v>16.457479089037886</v>
+        <v>53.981296577178938</v>
       </c>
       <c r="E73" s="1">
-        <v>987.44873046875</v>
+        <v>5398.1298828125</v>
       </c>
     </row>
     <row r="74">
@@ -1442,16 +1442,16 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C74" s="1">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="D74" s="1">
-        <v>15.668787100091466</v>
+        <v>25.138999652217471</v>
       </c>
       <c r="E74" s="1">
-        <v>1253.5029296875</v>
+        <v>7416.0048828125</v>
       </c>
     </row>
     <row r="75">
@@ -1459,16 +1459,16 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D75" s="1">
-        <v>39.989490301458105</v>
+        <v>21.823723782417218</v>
       </c>
       <c r="E75" s="1">
-        <v>3199.1591796875</v>
+        <v>2182.372314453125</v>
       </c>
     </row>
     <row r="76">
@@ -1476,16 +1476,16 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C76" s="1">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>46.868229648158092</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
+        <v>1546.651611328125</v>
       </c>
     </row>
     <row r="77">
@@ -1493,16 +1493,16 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C77" s="1">
-        <v>77.5</v>
+        <v>85</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>9.0773019759435982</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>771.5706787109375</v>
       </c>
     </row>
     <row r="78">
@@ -1510,16 +1510,16 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C78" s="1">
-        <v>112.5</v>
+        <v>30</v>
       </c>
       <c r="D78" s="1">
-        <v>11.258825547660328</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>1266.617919921875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1527,16 +1527,16 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C79" s="1">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1">
-        <v>8.6313793025682113</v>
+        <v>12.573922625853196</v>
       </c>
       <c r="E79" s="1">
-        <v>733.667236328125</v>
+        <v>1144.2269287109375</v>
       </c>
     </row>
     <row r="80">
@@ -1544,16 +1544,16 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C80" s="1">
-        <v>91</v>
+        <v>35.5</v>
       </c>
       <c r="D80" s="1">
-        <v>13.003781988992799</v>
+        <v>22.09582167266889</v>
       </c>
       <c r="E80" s="1">
-        <v>1183.3441162109375</v>
+        <v>784.40167236328125</v>
       </c>
     </row>
     <row r="81">
@@ -1561,16 +1561,16 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C81" s="1">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>19.775047110803726</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
+        <v>5537.01318359375</v>
       </c>
     </row>
     <row r="82">
@@ -1578,16 +1578,16 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C82" s="1">
-        <v>57.5</v>
+        <v>168</v>
       </c>
       <c r="D82" s="1">
-        <v>21.064435758960215</v>
+        <v>1.7035170045711576</v>
       </c>
       <c r="E82" s="1">
-        <v>1211.205078125</v>
+        <v>286.19085693359375</v>
       </c>
     </row>
     <row r="83">
@@ -1595,16 +1595,16 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C83" s="1">
-        <v>168</v>
+        <v>57.5</v>
       </c>
       <c r="D83" s="1">
-        <v>1.8439675338586812</v>
+        <v>20.319082446163875</v>
       </c>
       <c r="E83" s="1">
-        <v>309.78656005859375</v>
+        <v>1168.3472900390625</v>
       </c>
     </row>
     <row r="84">
@@ -1612,16 +1612,16 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C84" s="1">
-        <v>334</v>
+        <v>25</v>
       </c>
       <c r="D84" s="1">
-        <v>12.596166011213423</v>
+        <v>37.39494500023919</v>
       </c>
       <c r="E84" s="1">
-        <v>4207.11962890625</v>
+        <v>934.87359619140625</v>
       </c>
     </row>
     <row r="85">
@@ -1629,16 +1629,16 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C85" s="1">
-        <v>25</v>
+        <v>75.5</v>
       </c>
       <c r="D85" s="1">
-        <v>39.938503641358324</v>
+        <v>110.83556192919544</v>
       </c>
       <c r="E85" s="1">
-        <v>998.46258544921875</v>
+        <v>8368.0849609375</v>
       </c>
     </row>
     <row r="86">
@@ -1646,16 +1646,16 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C86" s="1">
-        <v>83.75</v>
+        <v>77.5</v>
       </c>
       <c r="D86" s="1">
-        <v>8.7861950559533302</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>735.84381103515625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1663,16 +1663,16 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C87" s="1">
-        <v>312.5</v>
+        <v>163.04347229003906</v>
       </c>
       <c r="D87" s="1">
-        <v>10.352916163835843</v>
+        <v>24.867986383407938</v>
       </c>
       <c r="E87" s="1">
-        <v>3235.286376953125</v>
+        <v>4054.562744140625</v>
       </c>
     </row>
     <row r="88">
@@ -1680,16 +1680,16 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C88" s="1">
         <v>150</v>
       </c>
       <c r="D88" s="1">
-        <v>7.1381170796358608</v>
+        <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>1070.717529296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1697,16 +1697,16 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C89" s="1">
-        <v>35.5</v>
+        <v>206.66667175292969</v>
       </c>
       <c r="D89" s="1">
-        <v>22.535818373730393</v>
+        <v>34.21831188705481</v>
       </c>
       <c r="E89" s="1">
-        <v>800.02154541015625</v>
+        <v>7071.78466796875</v>
       </c>
     </row>
     <row r="90">
@@ -1714,16 +1714,16 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C90" s="1">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D90" s="1">
-        <v>125.63386194155223</v>
+        <v>39.830557651715381</v>
       </c>
       <c r="E90" s="1">
-        <v>11181.4140625</v>
+        <v>3186.444580078125</v>
       </c>
     </row>
     <row r="91">
@@ -1731,16 +1731,16 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C91" s="1">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="D91" s="1">
-        <v>26.284929443713143</v>
+        <v>20.898904329300343</v>
       </c>
       <c r="E91" s="1">
-        <v>7754.05419921875</v>
+        <v>3260.22900390625</v>
       </c>
     </row>
     <row r="92">
@@ -1748,16 +1748,16 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C92" s="1">
-        <v>177.77777099609375</v>
+        <v>380</v>
       </c>
       <c r="D92" s="1">
-        <v>21.167612287823033</v>
+        <v>6.8328058778420306</v>
       </c>
       <c r="E92" s="1">
-        <v>3763.130859375</v>
+        <v>2596.46630859375</v>
       </c>
     </row>
     <row r="93">
@@ -1765,16 +1765,16 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C93" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D93" s="1">
-        <v>57.066627874784288</v>
+        <v>6.8736184932715814</v>
       </c>
       <c r="E93" s="1">
-        <v>5706.66259765625</v>
+        <v>1031.042724609375</v>
       </c>
     </row>
     <row r="94">
@@ -1782,16 +1782,16 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C94" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D94" s="1">
-        <v>20.343278355853879</v>
+        <v>16.705050011272128</v>
       </c>
       <c r="E94" s="1">
-        <v>2034.327880859375</v>
+        <v>1002.302978515625</v>
       </c>
     </row>
     <row r="95">
@@ -1799,16 +1799,16 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95" s="1">
-        <v>60</v>
+        <v>177.77777099609375</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>20.316266548469706</v>
       </c>
       <c r="E95" s="1">
-        <v>0</v>
+        <v>3611.780517578125</v>
       </c>
     </row>
     <row r="96">
@@ -1816,16 +1816,16 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C96" s="1">
-        <v>163.04347229003906</v>
+        <v>40</v>
       </c>
       <c r="D96" s="1">
-        <v>25.771581386954455</v>
+        <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>4201.88818359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1833,16 +1833,16 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C97" s="1">
-        <v>230</v>
+        <v>112.5</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>11.229878943532984</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>1263.361328125</v>
       </c>
     </row>
     <row r="98">
@@ -1850,16 +1850,16 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C98" s="1">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="D98" s="1">
-        <v>20.380797466937956</v>
+        <v>120.00132452648279</v>
       </c>
       <c r="E98" s="1">
-        <v>3179.404296875</v>
+        <v>10680.1181640625</v>
       </c>
     </row>
     <row r="99">
@@ -1867,16 +1867,16 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C99" s="1">
-        <v>380</v>
+        <v>105</v>
       </c>
       <c r="D99" s="1">
-        <v>7.5887418317259705</v>
+        <v>31.874095654139062</v>
       </c>
       <c r="E99" s="1">
-        <v>2883.721923828125</v>
+        <v>3346.780029296875</v>
       </c>
     </row>
     <row r="100">
@@ -1884,16 +1884,16 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C100" s="1">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="D100" s="1">
-        <v>32.047278376572621</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>3364.964111328125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -1901,16 +1901,16 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C101" s="1">
-        <v>206.66667175292969</v>
+        <v>120</v>
       </c>
       <c r="D101" s="1">
-        <v>35.773522600541042</v>
+        <v>13.472605777468297</v>
       </c>
       <c r="E101" s="1">
-        <v>7393.19482421875</v>
+        <v>1616.712646484375</v>
       </c>
     </row>
     <row r="102">
@@ -1918,16 +1918,16 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C102" s="1">
-        <v>75.5</v>
+        <v>334</v>
       </c>
       <c r="D102" s="1">
-        <v>114.1391790891991</v>
+        <v>13.38977427849883</v>
       </c>
       <c r="E102" s="1">
-        <v>8617.5078125</v>
+        <v>4472.1845703125</v>
       </c>
     </row>
     <row r="103">
@@ -1935,16 +1935,16 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C103" s="1">
-        <v>60</v>
+        <v>132.5</v>
       </c>
       <c r="D103" s="1">
-        <v>45.674628638373122</v>
+        <v>14.961363627378425</v>
       </c>
       <c r="E103" s="1">
-        <v>2740.477783203125</v>
+        <v>1982.3807373046875</v>
       </c>
     </row>
     <row r="104">
@@ -1952,16 +1952,16 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C104" s="1">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D104" s="1">
-        <v>20.343278355853879</v>
+        <v>39.830557651715381</v>
       </c>
       <c r="E104" s="1">
-        <v>1118.8802490234375</v>
+        <v>1792.3751220703125</v>
       </c>
     </row>
     <row r="105">
@@ -1969,16 +1969,16 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C105" s="1">
-        <v>30</v>
+        <v>65.76922607421875</v>
       </c>
       <c r="D105" s="1">
-        <v>16.457479089037886</v>
+        <v>1.7035170045711576</v>
       </c>
       <c r="E105" s="1">
-        <v>493.724365234375</v>
+        <v>112.03899383544922</v>
       </c>
     </row>
     <row r="106">
@@ -1986,16 +1986,16 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C106" s="1">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="D106" s="1">
-        <v>8.7861950559533302</v>
+        <v>13.38977427849883</v>
       </c>
       <c r="E106" s="1">
-        <v>281.15823364257813</v>
+        <v>1740.670654296875</v>
       </c>
     </row>
     <row r="107">
@@ -2003,16 +2003,16 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C107" s="1">
-        <v>35.089424133300781</v>
+        <v>20</v>
       </c>
       <c r="D107" s="1">
-        <v>18.848436411321099</v>
+        <v>16.519885333687775</v>
       </c>
       <c r="E107" s="1">
-        <v>661.38079833984375</v>
+        <v>330.397705078125</v>
       </c>
     </row>
     <row r="108">
@@ -2020,16 +2020,16 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C108" s="1">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D108" s="1">
-        <v>8.6313793025682113</v>
+        <v>120.00132452648279</v>
       </c>
       <c r="E108" s="1">
-        <v>345.25515747070313</v>
+        <v>4080.044921875</v>
       </c>
     </row>
     <row r="109">
@@ -2037,16 +2037,16 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C109" s="1">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D109" s="1">
-        <v>0</v>
+        <v>21.823723782417218</v>
       </c>
       <c r="E109" s="1">
-        <v>0</v>
+        <v>1200.3048095703125</v>
       </c>
     </row>
     <row r="110">
@@ -2054,16 +2054,16 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C110" s="1">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="D110" s="1">
-        <v>11.258825547660328</v>
+        <v>6.8328058778420306</v>
       </c>
       <c r="E110" s="1">
-        <v>270.21182250976563</v>
+        <v>1298.233154296875</v>
       </c>
     </row>
     <row r="111">
@@ -2071,16 +2071,16 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C111" s="1">
-        <v>60</v>
+        <v>39.576210021972656</v>
       </c>
       <c r="D111" s="1">
-        <v>32.047278376572621</v>
+        <v>13.472605777468297</v>
       </c>
       <c r="E111" s="1">
-        <v>1922.836669921875</v>
+        <v>533.1947021484375</v>
       </c>
     </row>
     <row r="112">
@@ -2088,16 +2088,16 @@
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C112" s="1">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D112" s="1">
-        <v>57.066627874784288</v>
+        <v>22.09582167266889</v>
       </c>
       <c r="E112" s="1">
-        <v>2339.731689453125</v>
+        <v>309.34149169921875</v>
       </c>
     </row>
     <row r="113">
@@ -2105,16 +2105,16 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C113" s="1">
-        <v>33.990089416503906</v>
+        <v>70.652175903320313</v>
       </c>
       <c r="D113" s="1">
-        <v>0</v>
+        <v>24.867986383407938</v>
       </c>
       <c r="E113" s="1">
-        <v>0</v>
+        <v>1756.977294921875</v>
       </c>
     </row>
     <row r="114">
@@ -2122,16 +2122,16 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C114" s="1">
-        <v>70.652175903320313</v>
+        <v>80</v>
       </c>
       <c r="D114" s="1">
-        <v>25.771581386954455</v>
+        <v>25.138999652217471</v>
       </c>
       <c r="E114" s="1">
-        <v>1820.818359375</v>
+        <v>2011.1199951171875</v>
       </c>
     </row>
     <row r="115">
@@ -2139,16 +2139,16 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C115" s="1">
-        <v>16</v>
+        <v>35.089424133300781</v>
       </c>
       <c r="D115" s="1">
-        <v>0</v>
+        <v>22.002656117188938</v>
       </c>
       <c r="E115" s="1">
-        <v>0</v>
+        <v>772.060546875</v>
       </c>
     </row>
     <row r="116">
@@ -2156,16 +2156,16 @@
         <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C116" s="1">
-        <v>190</v>
+        <v>102.76828002929688</v>
       </c>
       <c r="D116" s="1">
-        <v>7.5887418317259705</v>
+        <v>6.8736184932715814</v>
       </c>
       <c r="E116" s="1">
-        <v>1441.8609619140625</v>
+        <v>706.38995361328125</v>
       </c>
     </row>
     <row r="117">
@@ -2173,16 +2173,16 @@
         <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C117" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D117" s="1">
-        <v>39.989490301458105</v>
+        <v>53.981296577178938</v>
       </c>
       <c r="E117" s="1">
-        <v>1799.527099609375</v>
+        <v>2213.233154296875</v>
       </c>
     </row>
     <row r="118">
@@ -2190,16 +2190,16 @@
         <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C118" s="1">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D118" s="1">
-        <v>0</v>
+        <v>31.874095654139062</v>
       </c>
       <c r="E118" s="1">
-        <v>0</v>
+        <v>1912.4456787109375</v>
       </c>
     </row>
     <row r="119">
@@ -2207,16 +2207,16 @@
         <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C119" s="1">
-        <v>69.785903930664063</v>
+        <v>19</v>
       </c>
       <c r="D119" s="1">
-        <v>35.773522600541042</v>
+        <v>12.573922625853196</v>
       </c>
       <c r="E119" s="1">
-        <v>2496.487548828125</v>
+        <v>238.90452575683594</v>
       </c>
     </row>
     <row r="120">
@@ -2224,16 +2224,16 @@
         <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C120" s="1">
-        <v>102.76828002929688</v>
+        <v>40</v>
       </c>
       <c r="D120" s="1">
-        <v>7.1381170796358608</v>
+        <v>9.0773019759435982</v>
       </c>
       <c r="E120" s="1">
-        <v>733.572021484375</v>
+        <v>363.09207153320313</v>
       </c>
     </row>
     <row r="121">
@@ -2241,16 +2241,16 @@
         <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C121" s="1">
-        <v>525.894287109375</v>
+        <v>16</v>
       </c>
       <c r="D121" s="1">
-        <v>18.338965379810677</v>
+        <v>0</v>
       </c>
       <c r="E121" s="1">
-        <v>9644.357421875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2258,16 +2258,16 @@
         <v>4</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C122" s="1">
-        <v>35.178852081298828</v>
+        <v>60</v>
       </c>
       <c r="D122" s="1">
-        <v>114.1391790891991</v>
+        <v>46.868229648158092</v>
       </c>
       <c r="E122" s="1">
-        <v>4015.285400390625</v>
+        <v>2812.09375</v>
       </c>
     </row>
     <row r="123">
@@ -2275,16 +2275,16 @@
         <v>4</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C123" s="1">
-        <v>67.5</v>
+        <v>35.178852081298828</v>
       </c>
       <c r="D123" s="1">
-        <v>20.380797466937956</v>
+        <v>110.83556192919544</v>
       </c>
       <c r="E123" s="1">
-        <v>1375.703857421875</v>
+        <v>3899.06787109375</v>
       </c>
     </row>
     <row r="124">
@@ -2292,16 +2292,16 @@
         <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C124" s="1">
-        <v>80</v>
+        <v>33.990089416503906</v>
       </c>
       <c r="D124" s="1">
-        <v>26.284929443713143</v>
+        <v>0</v>
       </c>
       <c r="E124" s="1">
-        <v>2102.79443359375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2309,16 +2309,16 @@
         <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C125" s="1">
-        <v>65.76922607421875</v>
+        <v>76.190475463867188</v>
       </c>
       <c r="D125" s="1">
-        <v>1.8439675338586812</v>
+        <v>20.316266548469706</v>
       </c>
       <c r="E125" s="1">
-        <v>121.27632141113281</v>
+        <v>1547.906005859375</v>
       </c>
     </row>
     <row r="126">
@@ -2326,16 +2326,16 @@
         <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C126" s="1">
-        <v>34</v>
+        <v>11.5</v>
       </c>
       <c r="D126" s="1">
-        <v>125.63386194155223</v>
+        <v>37.39494500023919</v>
       </c>
       <c r="E126" s="1">
-        <v>4271.55126953125</v>
+        <v>430.0418701171875</v>
       </c>
     </row>
     <row r="127">
@@ -2343,16 +2343,16 @@
         <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C127" s="1">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D127" s="1">
-        <v>22.535818373730393</v>
+        <v>0</v>
       </c>
       <c r="E127" s="1">
-        <v>315.50146484375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2360,16 +2360,16 @@
         <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C128" s="1">
-        <v>132.5</v>
+        <v>14</v>
       </c>
       <c r="D128" s="1">
-        <v>10.352916163835843</v>
+        <v>20.319082446163875</v>
       </c>
       <c r="E128" s="1">
-        <v>1371.7613525390625</v>
+        <v>284.4671630859375</v>
       </c>
     </row>
     <row r="129">
@@ -2377,16 +2377,16 @@
         <v>4</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C129" s="1">
-        <v>76.190475463867188</v>
+        <v>32</v>
       </c>
       <c r="D129" s="1">
-        <v>21.167612287823033</v>
+        <v>8.7984487689428388</v>
       </c>
       <c r="E129" s="1">
-        <v>1612.7703857421875</v>
+        <v>281.55035400390625</v>
       </c>
     </row>
     <row r="130">
@@ -2394,16 +2394,16 @@
         <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C130" s="1">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="D130" s="1">
-        <v>39.938503641358324</v>
+        <v>16.705050011272128</v>
       </c>
       <c r="E130" s="1">
-        <v>459.29278564453125</v>
+        <v>501.1514892578125</v>
       </c>
     </row>
     <row r="131">
@@ -2411,10 +2411,10 @@
         <v>4</v>
       </c>
       <c r="B131" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C131" s="1">
-        <v>39.576210021972656</v>
+        <v>14</v>
       </c>
       <c r="D131" s="1">
         <v>0</v>
@@ -2428,16 +2428,16 @@
         <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C132" s="1">
-        <v>85</v>
+        <v>67.5</v>
       </c>
       <c r="D132" s="1">
-        <v>0</v>
+        <v>20.898904329300343</v>
       </c>
       <c r="E132" s="1">
-        <v>0</v>
+        <v>1410.676025390625</v>
       </c>
     </row>
     <row r="133">
@@ -2445,16 +2445,16 @@
         <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C133" s="1">
-        <v>14</v>
+        <v>525.894287109375</v>
       </c>
       <c r="D133" s="1">
-        <v>21.064435758960215</v>
+        <v>19.775047110803726</v>
       </c>
       <c r="E133" s="1">
-        <v>294.902099609375</v>
+        <v>10399.583984375</v>
       </c>
     </row>
     <row r="134">
@@ -2462,16 +2462,16 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C134" s="1">
-        <v>19</v>
+        <v>69.785903930664063</v>
       </c>
       <c r="D134" s="1">
-        <v>13.003781988992799</v>
+        <v>34.21831188705481</v>
       </c>
       <c r="E134" s="1">
-        <v>247.07185363769531</v>
+        <v>2387.955810546875</v>
       </c>
     </row>
     <row r="135">
@@ -2479,16 +2479,16 @@
         <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C135" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D135" s="1">
-        <v>15.668787100091466</v>
+        <v>0</v>
       </c>
       <c r="E135" s="1">
-        <v>313.375732421875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2496,16 +2496,16 @@
         <v>4</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C136" s="1">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="D136" s="1">
-        <v>12.596166011213423</v>
+        <v>11.229878943532984</v>
       </c>
       <c r="E136" s="1">
-        <v>1637.5015869140625</v>
+        <v>269.51708984375</v>
       </c>
     </row>
     <row r="137">
@@ -2513,16 +2513,16 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C137" s="1">
-        <v>52.776165008544922</v>
+        <v>38</v>
       </c>
       <c r="D137" s="1">
-        <v>57.066627874784288</v>
+        <v>0</v>
       </c>
       <c r="E137" s="1">
-        <v>3011.7578125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -2533,13 +2533,13 @@
         <v>17</v>
       </c>
       <c r="C138" s="1">
-        <v>100</v>
+        <v>45.589572906494141</v>
       </c>
       <c r="D138" s="1">
-        <v>26.284929443713143</v>
+        <v>39.830557651715381</v>
       </c>
       <c r="E138" s="1">
-        <v>2628.492919921875</v>
+        <v>1815.858154296875</v>
       </c>
     </row>
     <row r="139">
@@ -2547,16 +2547,16 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C139" s="1">
-        <v>40</v>
+        <v>59.599998474121094</v>
       </c>
       <c r="D139" s="1">
-        <v>125.63386194155223</v>
+        <v>8.7984487689428388</v>
       </c>
       <c r="E139" s="1">
-        <v>5025.3544921875</v>
+        <v>524.38751220703125</v>
       </c>
     </row>
     <row r="140">
@@ -2564,16 +2564,16 @@
         <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C140" s="1">
-        <v>75</v>
+        <v>97.5</v>
       </c>
       <c r="D140" s="1">
-        <v>7.1381170796358608</v>
+        <v>0</v>
       </c>
       <c r="E140" s="1">
-        <v>535.3587646484375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2581,16 +2581,16 @@
         <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C141" s="1">
-        <v>27.571498870849609</v>
+        <v>82.900001525878906</v>
       </c>
       <c r="D141" s="1">
-        <v>0</v>
+        <v>21.823723782417218</v>
       </c>
       <c r="E141" s="1">
-        <v>0</v>
+        <v>1809.186767578125</v>
       </c>
     </row>
     <row r="142">
@@ -2598,16 +2598,16 @@
         <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C142" s="1">
-        <v>66.150001525878906</v>
+        <v>221.11111450195313</v>
       </c>
       <c r="D142" s="1">
-        <v>8.6313793025682113</v>
+        <v>6.8328058778420306</v>
       </c>
       <c r="E142" s="1">
-        <v>570.96575927734375</v>
+        <v>1510.809326171875</v>
       </c>
     </row>
     <row r="143">
@@ -2615,10 +2615,10 @@
         <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C143" s="1">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D143" s="1">
         <v>0</v>
@@ -2632,16 +2632,16 @@
         <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C144" s="1">
-        <v>45.589572906494141</v>
+        <v>131.94041442871094</v>
       </c>
       <c r="D144" s="1">
-        <v>39.989490301458105</v>
+        <v>13.38977427849883</v>
       </c>
       <c r="E144" s="1">
-        <v>1823.103759765625</v>
+        <v>1766.65234375</v>
       </c>
     </row>
     <row r="145">
@@ -2649,16 +2649,16 @@
         <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C145" s="1">
-        <v>18</v>
+        <v>66.150001525878906</v>
       </c>
       <c r="D145" s="1">
-        <v>39.938503641358324</v>
+        <v>9.0773019759435982</v>
       </c>
       <c r="E145" s="1">
-        <v>718.89306640625</v>
+        <v>600.46356201171875</v>
       </c>
     </row>
     <row r="146">
@@ -2666,16 +2666,16 @@
         <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C146" s="1">
-        <v>82.900001525878906</v>
+        <v>29.350000381469727</v>
       </c>
       <c r="D146" s="1">
-        <v>20.343278355853879</v>
+        <v>11.229878943532984</v>
       </c>
       <c r="E146" s="1">
-        <v>1686.457763671875</v>
+        <v>329.59695434570313</v>
       </c>
     </row>
     <row r="147">
@@ -2683,16 +2683,16 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C147" s="1">
-        <v>77</v>
+        <v>27.571498870849609</v>
       </c>
       <c r="D147" s="1">
-        <v>25.771581386954455</v>
+        <v>0</v>
       </c>
       <c r="E147" s="1">
-        <v>1984.4117431640625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -2700,16 +2700,16 @@
         <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C148" s="1">
-        <v>40.25</v>
+        <v>77</v>
       </c>
       <c r="D148" s="1">
-        <v>114.1391790891991</v>
+        <v>24.867986383407938</v>
       </c>
       <c r="E148" s="1">
-        <v>4594.10205078125</v>
+        <v>1914.8349609375</v>
       </c>
     </row>
     <row r="149">
@@ -2717,16 +2717,16 @@
         <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C149" s="1">
-        <v>221.11111450195313</v>
+        <v>50</v>
       </c>
       <c r="D149" s="1">
-        <v>7.5887418317259705</v>
+        <v>13.472605777468297</v>
       </c>
       <c r="E149" s="1">
-        <v>1677.9552001953125</v>
+        <v>673.63031005859375</v>
       </c>
     </row>
     <row r="150">
@@ -2734,16 +2734,16 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C150" s="1">
-        <v>14.649999618530273</v>
+        <v>26.388082504272461</v>
       </c>
       <c r="D150" s="1">
-        <v>0</v>
+        <v>16.519885333687775</v>
       </c>
       <c r="E150" s="1">
-        <v>0</v>
+        <v>435.9281005859375</v>
       </c>
     </row>
     <row r="151">
@@ -2751,16 +2751,16 @@
         <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C151" s="1">
-        <v>131.94041442871094</v>
+        <v>22</v>
       </c>
       <c r="D151" s="1">
-        <v>12.596166011213423</v>
+        <v>46.868229648158092</v>
       </c>
       <c r="E151" s="1">
-        <v>1661.943359375</v>
+        <v>1031.10107421875</v>
       </c>
     </row>
     <row r="152">
@@ -2768,16 +2768,16 @@
         <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C152" s="1">
-        <v>97.5</v>
+        <v>91.900001525878906</v>
       </c>
       <c r="D152" s="1">
-        <v>0</v>
+        <v>31.874095654139062</v>
       </c>
       <c r="E152" s="1">
-        <v>0</v>
+        <v>2929.2294921875</v>
       </c>
     </row>
     <row r="153">
@@ -2785,16 +2785,16 @@
         <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C153" s="1">
-        <v>32.5</v>
+        <v>88.888885498046875</v>
       </c>
       <c r="D153" s="1">
-        <v>16.457479089037886</v>
+        <v>20.316266548469706</v>
       </c>
       <c r="E153" s="1">
-        <v>534.8680419921875</v>
+        <v>1805.8902587890625</v>
       </c>
     </row>
     <row r="154">
@@ -2802,16 +2802,16 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C154" s="1">
-        <v>91.900001525878906</v>
+        <v>15.850000381469727</v>
       </c>
       <c r="D154" s="1">
-        <v>32.047278376572621</v>
+        <v>22.09582167266889</v>
       </c>
       <c r="E154" s="1">
-        <v>2945.14501953125</v>
+        <v>350.21878051757813</v>
       </c>
     </row>
     <row r="155">
@@ -2819,16 +2819,16 @@
         <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C155" s="1">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="D155" s="1">
-        <v>45.674628638373122</v>
+        <v>20.898904329300343</v>
       </c>
       <c r="E155" s="1">
-        <v>1004.8418579101563</v>
+        <v>1922.69921875</v>
       </c>
     </row>
     <row r="156">
@@ -2836,16 +2836,16 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C156" s="1">
-        <v>88.888885498046875</v>
+        <v>14.649999618530273</v>
       </c>
       <c r="D156" s="1">
-        <v>21.167612287823033</v>
+        <v>0</v>
       </c>
       <c r="E156" s="1">
-        <v>1881.5654296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -2853,16 +2853,16 @@
         <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C157" s="1">
-        <v>26.388082504272461</v>
+        <v>52.776165008544922</v>
       </c>
       <c r="D157" s="1">
-        <v>15.668787100091466</v>
+        <v>53.981296577178938</v>
       </c>
       <c r="E157" s="1">
-        <v>413.46923828125</v>
+        <v>2848.92578125</v>
       </c>
     </row>
     <row r="158">
@@ -2870,16 +2870,16 @@
         <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C158" s="1">
-        <v>80</v>
+        <v>86.666664123535156</v>
       </c>
       <c r="D158" s="1">
-        <v>1.8439675338586812</v>
+        <v>34.21831188705481</v>
       </c>
       <c r="E158" s="1">
-        <v>147.51741027832031</v>
+        <v>2965.5869140625</v>
       </c>
     </row>
     <row r="159">
@@ -2887,16 +2887,16 @@
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C159" s="1">
-        <v>12</v>
+        <v>145.64999389648438</v>
       </c>
       <c r="D159" s="1">
-        <v>0</v>
+        <v>19.775047110803726</v>
       </c>
       <c r="E159" s="1">
-        <v>0</v>
+        <v>2880.235595703125</v>
       </c>
     </row>
     <row r="160">
@@ -2904,16 +2904,16 @@
         <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C160" s="1">
-        <v>145.64999389648438</v>
+        <v>160</v>
       </c>
       <c r="D160" s="1">
-        <v>18.338965379810677</v>
+        <v>14.961363627378425</v>
       </c>
       <c r="E160" s="1">
-        <v>2671.0703125</v>
+        <v>2393.818115234375</v>
       </c>
     </row>
     <row r="161">
@@ -2921,16 +2921,16 @@
         <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C161" s="1">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="D161" s="1">
-        <v>10.352916163835843</v>
+        <v>120.00132452648279</v>
       </c>
       <c r="E161" s="1">
-        <v>1656.466552734375</v>
+        <v>4800.05322265625</v>
       </c>
     </row>
     <row r="162">
@@ -2938,16 +2938,16 @@
         <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C162" s="1">
-        <v>59.599998474121094</v>
+        <v>40.25</v>
       </c>
       <c r="D162" s="1">
-        <v>8.7861950559533302</v>
+        <v>110.83556192919544</v>
       </c>
       <c r="E162" s="1">
-        <v>523.6572265625</v>
+        <v>4461.13134765625</v>
       </c>
     </row>
     <row r="163">
@@ -2955,16 +2955,16 @@
         <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C163" s="1">
-        <v>29.350000381469727</v>
+        <v>75</v>
       </c>
       <c r="D163" s="1">
-        <v>11.258825547660328</v>
+        <v>6.8736184932715814</v>
       </c>
       <c r="E163" s="1">
-        <v>330.446533203125</v>
+        <v>515.5213623046875</v>
       </c>
     </row>
     <row r="164">
@@ -2972,16 +2972,16 @@
         <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C164" s="1">
-        <v>92</v>
+        <v>48.285499572753906</v>
       </c>
       <c r="D164" s="1">
-        <v>20.380797466937956</v>
+        <v>12.573922625853196</v>
       </c>
       <c r="E164" s="1">
-        <v>1875.0333251953125</v>
+        <v>607.13812255859375</v>
       </c>
     </row>
     <row r="165">
@@ -2989,16 +2989,16 @@
         <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C165" s="1">
-        <v>86.666664123535156</v>
+        <v>32.5</v>
       </c>
       <c r="D165" s="1">
-        <v>35.773522600541042</v>
+        <v>16.705050011272128</v>
       </c>
       <c r="E165" s="1">
-        <v>3100.371826171875</v>
+        <v>542.91412353515625</v>
       </c>
     </row>
     <row r="166">
@@ -3006,16 +3006,16 @@
         <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C166" s="1">
-        <v>65.970199584960938</v>
+        <v>80</v>
       </c>
       <c r="D166" s="1">
-        <v>18.848436411321099</v>
+        <v>1.7035170045711576</v>
       </c>
       <c r="E166" s="1">
-        <v>1243.43505859375</v>
+        <v>136.28135681152344</v>
       </c>
     </row>
     <row r="167">
@@ -3023,16 +3023,16 @@
         <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C167" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D167" s="1">
-        <v>0</v>
+        <v>25.138999652217471</v>
       </c>
       <c r="E167" s="1">
-        <v>0</v>
+        <v>2513.89990234375</v>
       </c>
     </row>
     <row r="168">
@@ -3040,16 +3040,16 @@
         <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C168" s="1">
-        <v>25.694042205810547</v>
+        <v>18</v>
       </c>
       <c r="D168" s="1">
-        <v>21.064435758960215</v>
+        <v>37.39494500023919</v>
       </c>
       <c r="E168" s="1">
-        <v>541.23052978515625</v>
+        <v>673.1090087890625</v>
       </c>
     </row>
     <row r="169">
@@ -3057,16 +3057,16 @@
         <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C169" s="1">
-        <v>48.285499572753906</v>
+        <v>25.694042205810547</v>
       </c>
       <c r="D169" s="1">
-        <v>13.003781988992799</v>
+        <v>20.319082446163875</v>
       </c>
       <c r="E169" s="1">
-        <v>627.89410400390625</v>
+        <v>522.079345703125</v>
       </c>
     </row>
     <row r="170">
@@ -3074,16 +3074,16 @@
         <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C170" s="1">
-        <v>15.850000381469727</v>
+        <v>65.970199584960938</v>
       </c>
       <c r="D170" s="1">
-        <v>22.535818373730393</v>
+        <v>22.002656117188938</v>
       </c>
       <c r="E170" s="1">
-        <v>357.19271850585938</v>
+        <v>1451.5196533203125</v>
       </c>
     </row>
   </sheetData>
